--- a/interface/check/account.xlsx
+++ b/interface/check/account.xlsx
@@ -14,18 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
-    <t>hepancom</t>
+    <t>nbweekly</t>
   </si>
   <si>
-    <t>中文</t>
+    <t>南都周刊</t>
   </si>
   <si>
-    <t>nacsh688</t>
+    <t>woniuyouliao</t>
   </si>
   <si>
-    <t>关键</t>
+    <t>蜗牛有料</t>
+  </si>
+  <si>
+    <t>woyaowenfa</t>
+  </si>
+  <si>
+    <t>问法网</t>
+  </si>
+  <si>
+    <t>Chinadaily_Mobile</t>
+  </si>
+  <si>
+    <t>中国日报双语新闻</t>
+  </si>
+  <si>
+    <t>people_rmwbd</t>
+  </si>
+  <si>
+    <t>此人有品</t>
   </si>
 </sst>
 </file>
@@ -33,10 +51,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -48,7 +66,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -63,7 +88,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -71,23 +96,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -99,8 +148,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,7 +165,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,22 +179,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,46 +204,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,19 +218,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,49 +356,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,109 +392,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,21 +409,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -428,16 +431,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,7 +466,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,17 +501,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,10 +517,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -511,133 +529,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -967,13 +985,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -991,6 +1012,30 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/interface/check/account.xlsx
+++ b/interface/check/account.xlsx
@@ -16,34 +16,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
-    <t>nbweekly</t>
+    <t>chinanewsweekly</t>
   </si>
   <si>
-    <t>南都周刊</t>
+    <t>中国新闻周刊</t>
   </si>
   <si>
-    <t>woniuyouliao</t>
+    <t>shzqbwx</t>
   </si>
   <si>
-    <t>蜗牛有料</t>
+    <t>上海证券报</t>
   </si>
   <si>
-    <t>woyaowenfa</t>
+    <t>crionline</t>
   </si>
   <si>
-    <t>问法网</t>
+    <t>国际在线</t>
   </si>
   <si>
-    <t>Chinadaily_Mobile</t>
+    <t>wangluoxinwenlianbo</t>
   </si>
   <si>
-    <t>中国日报双语新闻</t>
+    <t>网络新闻联播</t>
   </si>
   <si>
-    <t>people_rmwbd</t>
+    <t>xxrbszb</t>
   </si>
   <si>
-    <t>此人有品</t>
+    <t>江西政读</t>
   </si>
 </sst>
 </file>
@@ -52,9 +52,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -74,6 +74,98 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,40 +195,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,67 +208,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -218,187 +218,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,65 +409,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -503,12 +444,71 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -517,10 +517,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -529,106 +529,124 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,25 +655,7 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -988,7 +988,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>

--- a/interface/check/account.xlsx
+++ b/interface/check/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23220" windowHeight="11310"/>
+    <workbookView windowWidth="23175" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,34 +16,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
-    <t>chinanewsweekly</t>
+    <t xml:space="preserve">mrxbweixin  </t>
   </si>
   <si>
-    <t>中国新闻周刊</t>
+    <t>工信微报</t>
   </si>
   <si>
-    <t>shzqbwx</t>
+    <t xml:space="preserve">neteasenewsapp </t>
   </si>
   <si>
-    <t>上海证券报</t>
+    <t>凤凰网国际智库</t>
   </si>
   <si>
-    <t>crionline</t>
+    <t>gmw_001</t>
   </si>
   <si>
-    <t>国际在线</t>
+    <t>经济日报</t>
   </si>
   <si>
-    <t>wangluoxinwenlianbo</t>
+    <t>tongzhou99   </t>
   </si>
   <si>
-    <t>网络新闻联播</t>
+    <t>中国金融信息中心</t>
   </si>
   <si>
-    <t>xxrbszb</t>
+    <t>lsxwzx</t>
   </si>
   <si>
-    <t>江西政读</t>
+    <t>刀口谈兵</t>
   </si>
 </sst>
 </file>
@@ -52,9 +52,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -79,6 +79,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -86,71 +109,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,13 +171,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -180,20 +180,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -201,11 +187,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -218,19 +218,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,19 +380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,133 +392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,6 +409,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -444,10 +459,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -457,22 +470,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,9 +501,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,10 +517,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -529,7 +529,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -538,132 +538,129 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -988,16 +985,17 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">

--- a/interface/check/account.xlsx
+++ b/interface/check/account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23175" windowHeight="11310"/>
+    <workbookView windowWidth="23175" windowHeight="11235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,31 +16,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
-    <t xml:space="preserve">mrxbweixin  </t>
+    <t>mrxbweixin</t>
   </si>
   <si>
     <t>工信微报</t>
   </si>
   <si>
-    <t xml:space="preserve">neteasenewsapp </t>
+    <t>lsxwzx</t>
   </si>
   <si>
     <t>凤凰网国际智库</t>
   </si>
   <si>
-    <t>gmw_001</t>
+    <t>fazhiwangnews</t>
   </si>
   <si>
     <t>经济日报</t>
   </si>
   <si>
-    <t>tongzhou99   </t>
+    <t>chongqingwanbao</t>
   </si>
   <si>
     <t>中国金融信息中心</t>
   </si>
   <si>
-    <t>lsxwzx</t>
+    <t>lrtv_xwzzb</t>
   </si>
   <si>
     <t>刀口谈兵</t>
@@ -51,10 +51,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -65,6 +65,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -73,22 +88,91 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,13 +186,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -117,93 +194,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,187 +218,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,6 +409,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -442,39 +451,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -492,6 +468,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -501,11 +488,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,10 +517,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -529,133 +529,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -985,7 +985,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A1" sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>

--- a/interface/check/account.xlsx
+++ b/interface/check/account.xlsx
@@ -14,36 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
-    <t>mrxbweixin</t>
+    <t>harbindaily</t>
   </si>
   <si>
-    <t>工信微报</t>
+    <t>查询结果</t>
   </si>
   <si>
-    <t>lsxwzx</t>
+    <t>shouduxiaomei</t>
   </si>
   <si>
-    <t>凤凰网国际智库</t>
+    <t>zgzs001</t>
   </si>
   <si>
-    <t>fazhiwangnews</t>
+    <t>BJCB96101</t>
   </si>
   <si>
-    <t>经济日报</t>
-  </si>
-  <si>
-    <t>chongqingwanbao</t>
-  </si>
-  <si>
-    <t>中国金融信息中心</t>
-  </si>
-  <si>
-    <t>lrtv_xwzzb</t>
-  </si>
-  <si>
-    <t>刀口谈兵</t>
+    <t>boyangcongpeople</t>
   </si>
 </sst>
 </file>
@@ -51,10 +39,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -65,6 +53,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -74,21 +101,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,82 +152,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -186,17 +160,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,6 +185,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,91 +206,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,7 +350,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,13 +374,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,61 +386,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,11 +400,44 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -436,17 +457,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,50 +497,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -517,10 +505,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -529,133 +517,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -985,7 +973,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A5"/>
+      <selection activeCell="B1" sqref="B1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1007,31 +995,31 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
